--- a/TSumNvmNdt/findchip_stock.xlsx
+++ b/TSumNvmNdt/findchip_stock.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1931,6 +1931,237 @@
         </is>
       </c>
     </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>NVMFD5485NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D46" t="b">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>NVMFD5485NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFD5485NLWFT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLT1G</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLT1G</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D49" t="b">
+        <v>1</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFD5489NLT1G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLT1G</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Flip Electronics</t>
+        </is>
+      </c>
+      <c r="D50" t="b">
+        <v>1</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F50" t="n">
+        <v>10500</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLT1G</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F51" t="n">
+        <v>0</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLT1G</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D52" t="b">
+        <v>1</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F52" t="n">
+        <v>0</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TSumNvmNdt/findchip_stock.xlsx
+++ b/TSumNvmNdt/findchip_stock.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2162,6 +2162,204 @@
         </is>
       </c>
     </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLT3G</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D53" t="b">
+        <v>1</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F53" t="n">
+        <v>0</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLT3G</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D54" t="b">
+        <v>1</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFD5489NLT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F54" t="n">
+        <v>0</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F55" t="n">
+        <v>0</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>NVMFD5489NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D56" t="b">
+        <v>1</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F56" t="n">
+        <v>0</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>NVMFD5852NLT1G</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D57" t="b">
+        <v>1</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>NVMFD5852NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F58" t="n">
+        <v>0</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/TSumNvmNdt/findchip_stock.xlsx
+++ b/TSumNvmNdt/findchip_stock.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:G143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2360,6 +2360,2811 @@
         </is>
       </c>
     </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>NVMFD5853NLT1G</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D59" t="b">
+        <v>1</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFD5853NLT1G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F59" t="n">
+        <v>2</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NVMFD5853NLT1G</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D60" t="b">
+        <v>1</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F60" t="n">
+        <v>0</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NVMFD5853NLT1G</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Arrow Electronics China</t>
+        </is>
+      </c>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFD5853NLT1G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F61" t="n">
+        <v>2</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NVMFD5853NLT1G</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D62" t="b">
+        <v>1</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F62" t="n">
+        <v>0</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NVMFD5853NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D63" t="b">
+        <v>1</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>NVMFD5853NT1G</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D64" t="b">
+        <v>1</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F64" t="n">
+        <v>0</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>NVMFD5853NWFT1G</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D65" t="b">
+        <v>1</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>NVMFD5873NLT1G</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D66" t="b">
+        <v>1</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>NVMFD5873NLT1G</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D67" t="b">
+        <v>1</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>NVMFD5873NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLT1G</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D69" t="b">
+        <v>1</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLT3G</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D70" t="b">
+        <v>1</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFD5875NLT3G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLT3G</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D71" t="b">
+        <v>1</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLT3G</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F72" t="n">
+        <v>0</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLT3G</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D73" t="b">
+        <v>1</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F73" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D74" t="b">
+        <v>1</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F74" t="n">
+        <v>0</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>NVMFD5875NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D75" t="b">
+        <v>1</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F75" t="n">
+        <v>0</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLT1G</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D76" t="b">
+        <v>1</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F76" t="n">
+        <v>0</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLT1G</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F77" t="n">
+        <v>0</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLT3G</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D78" t="b">
+        <v>1</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F78" t="n">
+        <v>0</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D79" t="b">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F79" t="n">
+        <v>0</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F80" t="n">
+        <v>0</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>NVMFD5877NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D81" t="b">
+        <v>1</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F81" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D82" t="b">
+        <v>1</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFD5C470NLWFT1G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F82" t="n">
+        <v>0</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D83" t="b">
+        <v>1</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F83" t="n">
+        <v>0</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Future Electronics China</t>
+        </is>
+      </c>
+      <c r="D84" t="b">
+        <v>1</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F84" t="n">
+        <v>0</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Avnet Asia</t>
+        </is>
+      </c>
+      <c r="D85" t="b">
+        <v>1</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F85" t="n">
+        <v>0</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D86" t="b">
+        <v>1</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFD5C470NLWFT1G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F86" t="n">
+        <v>0</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D87" t="b">
+        <v>1</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F87" t="n">
+        <v>0</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>NVMFD5C470NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D88" t="b">
+        <v>1</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F88" t="n">
+        <v>0</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>NVMFS4841NT1G</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D89" t="b">
+        <v>1</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F89" t="n">
+        <v>0</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>NVMFS4841NWFT1G</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D90" t="b">
+        <v>1</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F90" t="n">
+        <v>0</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NT3G</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D91" t="b">
+        <v>1</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFS4C01NT3G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F91" t="n">
+        <v>0</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NT3G</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D92" t="b">
+        <v>1</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F92" t="n">
+        <v>0</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NT3G</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D93" t="b">
+        <v>1</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFS4C01NT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F93" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NT3G</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D94" t="b">
+        <v>1</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F94" t="n">
+        <v>0</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NT3G</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D95" t="b">
+        <v>1</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F95" t="n">
+        <v>0</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NWFT3G</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D96" t="b">
+        <v>1</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFS4C01NWFT3G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F96" t="n">
+        <v>0</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NWFT3G</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D97" t="b">
+        <v>1</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F97" t="n">
+        <v>0</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NWFT3G</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D98" t="b">
+        <v>1</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFS4C01NWFT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F98" t="n">
+        <v>0</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NWFT3G</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D99" t="b">
+        <v>1</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F99" t="n">
+        <v>0</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>NVMFS4C01NWFT3G</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D100" t="b">
+        <v>1</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F100" t="n">
+        <v>0</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NT3G</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D101" t="b">
+        <v>1</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F101" t="n">
+        <v>0</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NT3G</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D102" t="b">
+        <v>1</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFS4C03NT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F102" t="n">
+        <v>0</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NT3G</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D103" t="b">
+        <v>1</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F103" t="n">
+        <v>0</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NT3G</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D104" t="b">
+        <v>1</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F104" t="n">
+        <v>0</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NWFT3G</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D105" t="b">
+        <v>1</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFS4C03NWFT3G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F105" t="n">
+        <v>0</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NWFT3G</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D106" t="b">
+        <v>1</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F106" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NWFT3G</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D107" t="b">
+        <v>1</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFS4C03NWFT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F107" t="n">
+        <v>0</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>NVMFS4C03NWFT3G</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D108" t="b">
+        <v>1</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F108" t="n">
+        <v>0</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NT3G</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D109" t="b">
+        <v>1</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFS4C05NT3G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F109" t="n">
+        <v>0</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NT3G</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D110" t="b">
+        <v>1</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F110" t="n">
+        <v>0</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NT3G</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Avnet Asia</t>
+        </is>
+      </c>
+      <c r="D111" t="b">
+        <v>1</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F111" t="n">
+        <v>0</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NT3G</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D112" t="b">
+        <v>1</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFS4C05NT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F112" t="n">
+        <v>0</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NT3G</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D113" t="b">
+        <v>1</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F113" t="n">
+        <v>0</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NT3G</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D114" t="b">
+        <v>1</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F114" t="n">
+        <v>0</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NWFT3G</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D115" t="b">
+        <v>1</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F115" t="n">
+        <v>0</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>NVMFS4C05NWFT3G</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Mouser Electronics</t>
+        </is>
+      </c>
+      <c r="D116" t="b">
+        <v>1</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>https://www.mouser.cn/ProductDetail/Murata-Electronics/NVMFS4C05NWFT3G?qs=to8XolpOzrOREPd%2Fx%2FLxrw%3D%3D&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F116" t="n">
+        <v>0</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>NVMFS4C310NT3G</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D117" t="b">
+        <v>1</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F117" t="n">
+        <v>0</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>NVMFS4C310NWFT3G</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D118" t="b">
+        <v>1</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F118" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLT1G</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D119" t="b">
+        <v>1</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F119" t="n">
+        <v>0</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLT1G</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D120" t="b">
+        <v>1</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F120" t="n">
+        <v>0</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLT3G</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D121" t="b">
+        <v>1</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F121" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLT3G</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Flip Electronics</t>
+        </is>
+      </c>
+      <c r="D122" t="b">
+        <v>1</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F122" t="n">
+        <v>5000</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLWFT1G</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D123" t="b">
+        <v>1</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F123" t="n">
+        <v>0</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>NVMFS5826NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D124" t="b">
+        <v>1</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F124" t="n">
+        <v>0</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>NVMFS5830NLT1G</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D125" t="b">
+        <v>1</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F125" t="n">
+        <v>16</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>NVMFS5830NLT3G</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D126" t="b">
+        <v>1</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F126" t="n">
+        <v>0</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>NVMFS5830NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D127" t="b">
+        <v>1</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F127" t="n">
+        <v>0</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>NVMFS5832NLT1G</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Arrow Electronics</t>
+        </is>
+      </c>
+      <c r="D128" t="b">
+        <v>1</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>https://www.arrow.com/en/products/NVMFS5832NLT1G/murata-manufacturing?&amp;utm_source=findchips</t>
+        </is>
+      </c>
+      <c r="F128" t="n">
+        <v>0</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>NVMFS5832NLT1G</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D129" t="b">
+        <v>1</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F129" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>NVMFS5832NLT1G</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D130" t="b">
+        <v>1</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F130" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>NVMFS5832NLT3G</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D131" t="b">
+        <v>1</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F131" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>NVMFS5832NLT3G</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D132" t="b">
+        <v>1</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F132" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>NVMFS5833NT1G</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D133" t="b">
+        <v>1</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F133" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>NVMFS5833NWFT1G</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D134" t="b">
+        <v>1</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F134" t="n">
+        <v>0</v>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>NVMFS5834NLT1G</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D135" t="b">
+        <v>1</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F135" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>NVMFS5834NLT1G</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Avnet Asia</t>
+        </is>
+      </c>
+      <c r="D136" t="b">
+        <v>1</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F136" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>NVMFS5834NLT1G</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Avnet Europe</t>
+        </is>
+      </c>
+      <c r="D137" t="b">
+        <v>1</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F137" t="n">
+        <v>0</v>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>NVMFS5834NLT3G</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D138" t="b">
+        <v>1</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F138" t="n">
+        <v>0</v>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>NVMFS5834NLT3G</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Avnet Americas</t>
+        </is>
+      </c>
+      <c r="D139" t="b">
+        <v>1</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F139" t="n">
+        <v>0</v>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>NVMFS5834NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D140" t="b">
+        <v>1</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F140" t="n">
+        <v>0</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>NVMFS5834NLWFT3G</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Flip Electronics</t>
+        </is>
+      </c>
+      <c r="D141" t="b">
+        <v>1</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F141" t="n">
+        <v>15000</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>NVMFS5844NLT1G</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Rochester Electronics LLC</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D142" t="b">
+        <v>1</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F142" t="n">
+        <v>0</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>NVMFS5844NLT3G</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>onsemi</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Digi-Key</t>
+        </is>
+      </c>
+      <c r="D143" t="b">
+        <v>1</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>//analytics.supplyframe.com/tr</t>
+        </is>
+      </c>
+      <c r="F143" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
